--- a/medicine/Psychotrope/Jean-Michel_Cazes/Jean-Michel_Cazes.xlsx
+++ b/medicine/Psychotrope/Jean-Michel_Cazes/Jean-Michel_Cazes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Michel Cazes, né le 25 mars 1935 à Caudéran[1] (aujourd'hui quartier de Bordeaux) et mort le 28 juin 2023 à Pauillac, est un viticulteur-viniculteur français comptant parmi les grandes figures du vignoble de Bordeaux moderne[2],[3],[4],[5].
-Il est nommé en 2003 « Man of the Year » par la revue Decanter[3] et le Wine Spectator lui décerne un « Distinguished Service Award » en 2007[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel Cazes, né le 25 mars 1935 à Caudéran (aujourd'hui quartier de Bordeaux) et mort le 28 juin 2023 à Pauillac, est un viticulteur-viniculteur français comptant parmi les grandes figures du vignoble de Bordeaux moderne.
+Il est nommé en 2003 « Man of the Year » par la revue Decanter et le Wine Spectator lui décerne un « Distinguished Service Award » en 2007.
 </t>
         </is>
       </c>
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Ingénieur de l'École des mines de Paris en 1959 et détenteur d'un Master of Science en sédimentologie de l'université du Texas à Austin[7] en 1959–1960, Jean-Michel Cazes commence sa carrière professionnelle chez IBM de 1962 à 1972 et participe à l'informatisation des grandes entreprises. En 1973, il rejoint son père, André Cazes, alors maire de Pauillac, et s'investit dans les activités familiales : un cabinet d'assurances et les domaines viticoles des châteaux Lynch-Bages et Les Ormes de Pez[8].
-Viticulture
-De 1987 à 2001, sollicité par AXA Millésimes, Jean-Michel Cazes assume la direction des activités viticoles de l'assureur[9] pendant 14 ans et en pilote leurs acquisitions telles que Pichon-Longueville, Cantenac Brown, Petit Village[10] et Suduiraut, ainsi que de grands vignobles à l'étranger, en Hongrie (Domaine de Disznókő) et au Portugal (Quinta do Noval)[11]. Parallèlement, jusqu'en 2006, il poursuit le développement des vignobles familiaux[12] avec l’acquisition de Villa Bel-Air dans les Graves, puis une propriété à La Livinière dans le Languedoc, rebaptisée L'Ostal Cazes et en 2005, le Domaine des Sénéchaux à Châteauneuf-du-Pape, et quelques années plus tard, Château Haut-Batailley à Pauillac. Il crée aussi de nouveaux vins en Australie (Tapanappa), en partenariat avec la maison Bollinger en Champagne, et Brian Croser, un des œnologues australiens les plus réputés ; et au Portugal, dans le Douro, en s'associant avec la famille Roquette (Quinta do Crasto). En 2006, son fils Jean-Charles junior, prend la relève de son père Jean-Michel sur la destinée de Château Lynch-Bages, formant ainsi la 4e génération à la tête de l'entreprise familiale[13].
-Œnotourisme et hôtellerie
-En 1989, Jean-Michel Cazes ouvre le Relais &amp; Châteaux Cordeillan-Bages[14],[15] à Pauillac décoré par Pierre-Yves Rochon, où officient successivement Thierry Marx puis Jean-Luc Rocha, meilleur ouvrier de France. Il entreprend[2] alors la rénovation du village de Bages[16].
-Mort
-Jean-Michel Cazes meurt à Pauillac le 28 juin 2023 à l'âge de 88 ans des suites d'une longue maladie[17],[18],[19],[20].
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingénieur de l'École des mines de Paris en 1959 et détenteur d'un Master of Science en sédimentologie de l'université du Texas à Austin en 1959–1960, Jean-Michel Cazes commence sa carrière professionnelle chez IBM de 1962 à 1972 et participe à l'informatisation des grandes entreprises. En 1973, il rejoint son père, André Cazes, alors maire de Pauillac, et s'investit dans les activités familiales : un cabinet d'assurances et les domaines viticoles des châteaux Lynch-Bages et Les Ormes de Pez.
 </t>
         </is>
       </c>
@@ -547,15 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Autres engagements</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Président[21] de l’Union des Viticulteurs de Pauillac (ODG).
-Administrateur du Conseil des Vins du Médoc.
-Vice-Grand Maître de la Commanderie du Bontemps qu'il a présidée jusqu'en 2008.
-Initiateur[22] de l'association des Amis de Saint-Jean, soutien du lycée privé Saint-Jean de Pauillac[23],[24].</t>
+          <t>Viticulture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1987 à 2001, sollicité par AXA Millésimes, Jean-Michel Cazes assume la direction des activités viticoles de l'assureur pendant 14 ans et en pilote leurs acquisitions telles que Pichon-Longueville, Cantenac Brown, Petit Village et Suduiraut, ainsi que de grands vignobles à l'étranger, en Hongrie (Domaine de Disznókő) et au Portugal (Quinta do Noval). Parallèlement, jusqu'en 2006, il poursuit le développement des vignobles familiaux avec l’acquisition de Villa Bel-Air dans les Graves, puis une propriété à La Livinière dans le Languedoc, rebaptisée L'Ostal Cazes et en 2005, le Domaine des Sénéchaux à Châteauneuf-du-Pape, et quelques années plus tard, Château Haut-Batailley à Pauillac. Il crée aussi de nouveaux vins en Australie (Tapanappa), en partenariat avec la maison Bollinger en Champagne, et Brian Croser, un des œnologues australiens les plus réputés ; et au Portugal, dans le Douro, en s'associant avec la famille Roquette (Quinta do Crasto). En 2006, son fils Jean-Charles junior, prend la relève de son père Jean-Michel sur la destinée de Château Lynch-Bages, formant ainsi la 4e génération à la tête de l'entreprise familiale.
+</t>
         </is>
       </c>
     </row>
@@ -580,13 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bordeaux grands crus : la reconquête, Grenoble, Glénat, 2022 (ISBN 9782344052822 et 2344052828, OCLC 1319856779).
-avec Kinou Cazes-Hachemian et Jean-Luc Rocha, Lynch-Bages &amp; Cie : une famille, un vin &amp; 52 recettes, Grenoble, Glénat, 2013 (ISBN 9782723494090 et 2723494098, OCLC 863037631).</t>
+          <t>Œnotourisme et hôtellerie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, Jean-Michel Cazes ouvre le Relais &amp; Châteaux Cordeillan-Bages, à Pauillac décoré par Pierre-Yves Rochon, où officient successivement Thierry Marx puis Jean-Luc Rocha, meilleur ouvrier de France. Il entreprend alors la rénovation du village de Bages.
+</t>
         </is>
       </c>
     </row>
@@ -611,14 +632,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel Cazes meurt à Pauillac le 28 juin 2023 à l'âge de 88 ans des suites d'une longue maladie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Cazes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Cazes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Autres engagements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Président de l’Union des Viticulteurs de Pauillac (ODG).
+Administrateur du Conseil des Vins du Médoc.
+Vice-Grand Maître de la Commanderie du Bontemps qu'il a présidée jusqu'en 2008.
+Initiateur de l'association des Amis de Saint-Jean, soutien du lycée privé Saint-Jean de Pauillac,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Cazes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Cazes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bordeaux grands crus : la reconquête, Grenoble, Glénat, 2022 (ISBN 9782344052822 et 2344052828, OCLC 1319856779).
+avec Kinou Cazes-Hachemian et Jean-Luc Rocha, Lynch-Bages &amp; Cie : une famille, un vin &amp; 52 recettes, Grenoble, Glénat, 2013 (ISBN 9782723494090 et 2723494098, OCLC 863037631).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Cazes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Cazes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Décoration et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2001)[25].
-Decanter Man of the Year (2003)[3].
-Distinguished Service Award du Wine Spectator (2007)[26].</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2001).
+Decanter Man of the Year (2003).
+Distinguished Service Award du Wine Spectator (2007).</t>
         </is>
       </c>
     </row>
